--- a/public/temp/formato_alumnos_excel.xlsx
+++ b/public/temp/formato_alumnos_excel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>carnet</t>
   </si>
@@ -93,12 +93,18 @@
   </si>
   <si>
     <t>del tamarindo 2 c al guindo</t>
+  </si>
+  <si>
+    <t>carrera_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d\-m\-yyyy;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -145,12 +151,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -162,6 +165,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -443,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G4" sqref="G4:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,12 +462,12 @@
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,7 +483,7 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -491,8 +498,11 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -508,10 +518,10 @@
       <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="5">
         <v>33672</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="1">
@@ -523,8 +533,11 @@
       <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -540,10 +553,10 @@
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="5">
         <v>33637</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H3" s="1">
@@ -552,162 +565,139 @@
       <c r="I3" s="1">
         <v>89469271</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="5"/>
+      <c r="I8" s="4"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -718,8 +708,6 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -730,8 +718,6 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -742,8 +728,6 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -754,8 +738,6 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
